--- a/BioSci Faculty.xlsx
+++ b/BioSci Faculty.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucirvine.sharepoint.com/sites/BioSci-Contracts&amp;Grants-Team/Shared Documents/BioSci Research Development/Faculty-Keyword-Inventory-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76DCAC84-B08A-4C17-AB50-80E5725512E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{A939E89F-4417-D54D-B374-0BBA28533745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32F208D-8DAB-F94C-A26E-28E28F3C53F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{816B7ECC-D01A-4F40-81B4-3F46E6204442}"/>
+    <workbookView xWindow="28800" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{816B7ECC-D01A-4F40-81B4-3F46E6204442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$128</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,8 +38,91 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={42E18CD1-E844-8743-973F-592C2478B013}</author>
+    <author>tc={12149389-471A-42F0-95F8-C0932AAA7379}</author>
+    <author>tc={6601F1B0-D49C-3041-81FA-160AD491CA7A}</author>
+    <author>tc={3A7CEB71-7C6E-40C0-A2BA-5354EE8EE24A}</author>
+    <author>tc={9B0B3B44-A992-6443-9F4A-4337C34362B5}</author>
+    <author>tc={6C672D08-6083-624C-B384-785768E8065F}</author>
+    <author>tc={B81B1537-D3E3-F14C-9639-ADFD215F7FE9}</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{42E18CD1-E844-8743-973F-592C2478B013}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I reduced her name to “Arora, K”.</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{12149389-471A-42F0-95F8-C0932AAA7379}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    he is not affiliated with UCI
+Reply:
+    He’s really new. I edited his affiliation. </t>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="2" shapeId="0" xr:uid="{6601F1B0-D49C-3041-81FA-160AD491CA7A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Added author identifier</t>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="3" shapeId="0" xr:uid="{3A7CEB71-7C6E-40C0-A2BA-5354EE8EE24A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    zero results on pub med
+Reply:
+    Also not affiliated with UCI I think
+Reply:
+    She’s relatively new to UCI, so that makes sense. I’ve modified her search parameters by adding an author identifier.</t>
+      </text>
+    </comment>
+    <comment ref="D49" authorId="4" shapeId="0" xr:uid="{9B0B3B44-A992-6443-9F4A-4337C34362B5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed first name to “JF”.</t>
+      </text>
+    </comment>
+    <comment ref="D88" authorId="5" shapeId="0" xr:uid="{6C672D08-6083-624C-B384-785768E8065F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    When I search for him in PubMed, I get &gt;90 results… so the API isn’t finding his publications?
+Reply:
+    Maybe we could add author identifier for him as well?</t>
+      </text>
+    </comment>
+    <comment ref="D125" authorId="6" shapeId="0" xr:uid="{B81B1537-D3E3-F14C-9639-ADFD215F7FE9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Added author identifier</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="136">
+  <si>
+    <t>Faculty_Full_Name</t>
+  </si>
   <si>
     <t>Faculty</t>
   </si>
@@ -59,6 +142,9 @@
     <t>Arora, Kavita</t>
   </si>
   <si>
+    <t>Arora, K</t>
+  </si>
+  <si>
     <t>Atwood, Scott</t>
   </si>
   <si>
@@ -68,6 +154,9 @@
     <t>Baker, Nicholas</t>
   </si>
   <si>
+    <t>Baker, Nicholas E</t>
+  </si>
+  <si>
     <t>Baker, Nicholas[Author]</t>
   </si>
   <si>
@@ -98,7 +187,7 @@
     <t>Busciglio, Jorge</t>
   </si>
   <si>
-    <t>Cahill, Lawrence</t>
+    <t>Cahill, Larry</t>
   </si>
   <si>
     <t>Chen, Audrey</t>
@@ -122,9 +211,6 @@
     <t>Connor, Kwasi</t>
   </si>
   <si>
-    <t>Cotman, Carl</t>
-  </si>
-  <si>
     <t>Cramer, Karina</t>
   </si>
   <si>
@@ -140,7 +226,7 @@
     <t>Edinger, Aimee</t>
   </si>
   <si>
-    <t>Emerson, James</t>
+    <t>Emerson, JJ</t>
   </si>
   <si>
     <t>Eom, Dae Seok</t>
@@ -164,7 +250,10 @@
     <t>Fruman, David</t>
   </si>
   <si>
-    <t>Garcia Vedrenne, Ana</t>
+    <t>Garcia-Vedrenne, Ana</t>
+  </si>
+  <si>
+    <t>Garcia-Vedrenne, AE</t>
   </si>
   <si>
     <t>Gaut, Brandon</t>
@@ -200,6 +289,9 @@
     <t>Guzowski, John</t>
   </si>
   <si>
+    <t>Guzowski, JF</t>
+  </si>
+  <si>
     <t>Halbrook, Christopher</t>
   </si>
   <si>
@@ -314,7 +406,7 @@
     <t>Morrissette, Naomi</t>
   </si>
   <si>
-    <t>Mortazavi, Seyed Ali</t>
+    <t>Mortazavi, Ali</t>
   </si>
   <si>
     <t>Mulligan, Michael</t>
@@ -425,7 +517,7 @@
     <t>Whiteson, Katrine</t>
   </si>
   <si>
-    <t xml:space="preserve">Wiles, Travis </t>
+    <t xml:space="preserve">Wiles, TJ </t>
   </si>
   <si>
     <t>Williams, Adrienne</t>
@@ -441,7 +533,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,12 +541,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -469,8 +567,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,6 +585,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mitali Mittal" id="{3D84B400-D1D7-4A62-8611-C1035FD41DD3}" userId="S::mitalim@ad.uci.edu::5efb7291-eb71-46a2-856d-8bcc13c343e8" providerId="AD"/>
+  <person displayName="Justin Sarkis" id="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" userId="S::sarkisj@ad.uci.edu::bb8dcfa7-a190-4827-a72d-07c03c378e37" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,23 +909,61 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2024-09-30T23:56:22.41" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{42E18CD1-E844-8743-973F-592C2478B013}" done="1">
+    <text>I reduced her name to “Arora, K”.</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2024-09-26T21:39:59.41" personId="{3D84B400-D1D7-4A62-8611-C1035FD41DD3}" id="{12149389-471A-42F0-95F8-C0932AAA7379}" done="1">
+    <text>he is not affiliated with UCI</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2024-09-30T23:59:58.99" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{B3E0D6C2-BD98-1A44-83C3-C2D34E59AE19}" parentId="{12149389-471A-42F0-95F8-C0932AAA7379}">
+    <text xml:space="preserve">He’s really new. I edited his affiliation. </text>
+  </threadedComment>
+  <threadedComment ref="D30" dT="2024-10-01T00:02:49.63" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{6601F1B0-D49C-3041-81FA-160AD491CA7A}" done="1">
+    <text>Added author identifier</text>
+  </threadedComment>
+  <threadedComment ref="D38" dT="2024-09-26T21:39:43.61" personId="{3D84B400-D1D7-4A62-8611-C1035FD41DD3}" id="{3A7CEB71-7C6E-40C0-A2BA-5354EE8EE24A}" done="1">
+    <text>zero results on pub med</text>
+  </threadedComment>
+  <threadedComment ref="D38" dT="2024-09-26T21:55:32.12" personId="{3D84B400-D1D7-4A62-8611-C1035FD41DD3}" id="{EF639331-9474-490D-B956-4774EC3271CA}" parentId="{3A7CEB71-7C6E-40C0-A2BA-5354EE8EE24A}">
+    <text>Also not affiliated with UCI I think</text>
+  </threadedComment>
+  <threadedComment ref="D38" dT="2024-09-30T23:54:00.93" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{C988971B-1F03-7D4C-8AC7-D97FE43C879C}" parentId="{3A7CEB71-7C6E-40C0-A2BA-5354EE8EE24A}">
+    <text>She’s relatively new to UCI, so that makes sense. I’ve modified her search parameters by adding an author identifier.</text>
+  </threadedComment>
+  <threadedComment ref="D49" dT="2024-10-01T00:14:01.93" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{9B0B3B44-A992-6443-9F4A-4337C34362B5}" done="1">
+    <text>Changed first name to “JF”.</text>
+  </threadedComment>
+  <threadedComment ref="D88" dT="2024-10-01T00:14:57.33" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{6C672D08-6083-624C-B384-785768E8065F}" done="1">
+    <text>When I search for him in PubMed, I get &gt;90 results… so the API isn’t finding his publications?</text>
+  </threadedComment>
+  <threadedComment ref="D88" dT="2024-10-01T18:28:39.89" personId="{3D84B400-D1D7-4A62-8611-C1035FD41DD3}" id="{5D503EBF-D2C9-4E11-83BA-8A5B29BEABC4}" parentId="{6C672D08-6083-624C-B384-785768E8065F}">
+    <text>Maybe we could add author identifier for him as well?</text>
+  </threadedComment>
+  <threadedComment ref="D125" dT="2024-10-01T00:18:05.88" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{B81B1537-D3E3-F14C-9639-ADFD215F7FE9}" done="1">
+    <text>Added author identifier</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB22B5D1-2679-0245-9D4C-9BA6625E7CF7}">
-  <dimension ref="A1:C129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB22B5D1-2679-0245-9D4C-9BA6625E7CF7}">
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="102.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,1678 +973,2050 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B33" si="0">_xlfn.CONCAT(A2,"[Author]")</f>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C32" si="0">_xlfn.CONCAT(B2,"[Author]")</f>
         <v>Aguilar-Roca, Nancy[Author]</v>
       </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT(B2, " AND Irvine[Affiliation]")</f>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(C2, " AND Irvine[Affiliation]")</f>
         <v>Aguilar-Roca, Nancy[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="str">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>Allison, Steven[Author]</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="1">_xlfn.CONCAT(B3, " AND Irvine[Affiliation]")</f>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D65" si="1">_xlfn.CONCAT(C3, " AND Irvine[Affiliation]")</f>
         <v>Allison, Steven[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="str">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Arora, Kavita[Author]</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>Arora, Kavita[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>Arora, K[Author]</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Arora, K[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="str">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>Atwood, Scott[Author]</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="1"/>
         <v>Atwood, Scott[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="str">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>Azizi, Emanuel[Author]</v>
       </c>
-      <c r="C6" t="str">
-        <f>_xlfn.CONCAT(B6, " AND Irvine[Affiliation]")</f>
+      <c r="D6" t="str">
+        <f>_xlfn.CONCAT(C6, " AND Irvine[Affiliation]")</f>
         <v>Azizi, Emanuel[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="str">
-        <f>_xlfn.CONCAT(B7, " AND Irvine[Affiliation]")</f>
-        <v>Baker, Nicholas[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>_xlfn.CONCAT(C7, " AND (Irvine[Affiliation] OR Einstein[Affiliation])")</f>
+        <v>Baker, Nicholas[Author] AND (Irvine[Affiliation] OR Einstein[Affiliation])</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="str">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>Bardwell, Lee[Author]</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="1"/>
         <v>Bardwell, Lee[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="str">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>Barry, Rachael[Author]</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>Barry, Rachael[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="str">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Blumberg, Bruce[Author]</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>Blumberg, Bruce[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="str">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Blurton-Jones, Mathew[Author]</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>Blurton-Jones, Mathew[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="str">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Bohlson, Suzanne[Author]</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v>Bohlson, Suzanne[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="str">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>Bracken, Matthew[Author]</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="1"/>
         <v>Bracken, Matthew[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="str">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>Briscoe, Adriana[Author]</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="1"/>
         <v>Briscoe, Adriana[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="str">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Burley, Nancy[Author]</v>
       </c>
-      <c r="C15" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v>Burley, Nancy[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="str">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>Busciglio, Jorge[Author]</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="1"/>
         <v>Busciglio, Jorge[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="str">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>Cahill, Lawrence[Author]</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>Cahill, Lawrence[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>Cahill, Larry[Author]</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>Cahill, Larry[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="str">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>Chen, Audrey[Author]</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v>Chen, Audrey[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="str">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Cho, Ken[Author]</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v>Cho, Ken[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="str">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>Chrastil, Elizabeth[Author]</v>
       </c>
-      <c r="C20" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v>Chrastil, Elizabeth[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="str">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>Cinquin, Olivier[Author]</v>
       </c>
-      <c r="C21" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="1"/>
         <v>Cinquin, Olivier[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="str">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>Cocco, Melanie[Author]</v>
       </c>
-      <c r="C22" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="1"/>
         <v>Cocco, Melanie[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="str">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>Cohen-Cory, Susana[Author]</v>
       </c>
-      <c r="C23" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="1"/>
         <v>Cohen-Cory, Susana[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="str">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>Connor, Kwasi[Author]</v>
       </c>
-      <c r="C24" t="str">
+      <c r="D24" t="str">
         <f t="shared" si="1"/>
         <v>Connor, Kwasi[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>Cotman, Carl[Author]</v>
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>Cotman, Carl[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>Cramer, Karina[Author]</v>
       </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>Cramer, Karina[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>Cramer, Karina[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>Daley, Monica[Author]</v>
       </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>Daley, Monica[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>Daley, Monica[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>Donovan, Peter[Author]</v>
       </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>Donovan, Peter[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>Donovan, Peter[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>Drayman, Nir[Author]</v>
       </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>Drayman, Nir[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>Drayman, Nir[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>Edinger, Aimee[Author]</v>
       </c>
-      <c r="C30" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="1"/>
         <v>Edinger, Aimee[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>_xlfn.CONCAT(B30,"[Author] OR 0000-0001-9474-0891[Author - Identifier]")</f>
+        <v>Emerson, JJ[Author] OR 0000-0001-9474-0891[Author - Identifier]</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Emerson, JJ[Author] OR 0000-0001-9474-0891[Author - Identifier] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>Emerson, James[Author]</v>
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>Emerson, James[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>Eom, Dae Seok[Author]</v>
       </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>Eom, Dae Seok[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>Eom, Dae Seok[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>Faiola, Celia[Author]</v>
       </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>Faiola, Celia[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>Faiola, Celia[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <f t="shared" ref="C33:C64" si="2">_xlfn.CONCAT(B33,"[Author]")</f>
+        <v>Fortin, Norbert[Author]</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>Fortin, Norbert[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" ref="B34:B65" si="2">_xlfn.CONCAT(A34,"[Author]")</f>
-        <v>Fortin, Norbert[Author]</v>
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>Fortin, Norbert[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="str">
         <f t="shared" si="2"/>
         <v>Fowler, Christie[Author]</v>
       </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>Fowler, Christie[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>Fowler, Christie[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="str">
         <f t="shared" si="2"/>
         <v>Frank, Steven[Author]</v>
       </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>Frank, Steven[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>Frank, Steven[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="str">
         <f t="shared" si="2"/>
         <v>Frostig, Ron[Author]</v>
       </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>Frostig, Ron[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
-        <v>Frostig, Ron[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="str">
         <f t="shared" si="2"/>
         <v>Fruman, David[Author]</v>
       </c>
-      <c r="C38" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="1"/>
         <v>Fruman, David[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>_xlfn.CONCAT(B38,"[Author] OR 0000-0002-3518-1564[Author - Identifier]")</f>
+        <v>Garcia-Vedrenne, AE[Author] OR 0000-0002-3518-1564[Author - Identifier]</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f>_xlfn.CONCAT(C38)</f>
+        <v>Garcia-Vedrenne, AE[Author] OR 0000-0002-3518-1564[Author - Identifier]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="2"/>
-        <v>Garcia Vedrenne, Ana[Author]</v>
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
-        <v>Garcia Vedrenne, Ana[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="str">
         <f t="shared" si="2"/>
         <v>Gaut, Brandon[Author]</v>
       </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>Gaut, Brandon[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
-        <v>Gaut, Brandon[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="str">
         <f t="shared" si="2"/>
         <v>German, Donovan[Author]</v>
       </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>German, Donovan[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
-        <v>German, Donovan[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="str">
         <f t="shared" si="2"/>
         <v>Gershon, Paul[Author]</v>
       </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>Gershon, Paul[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
-        <v>Gershon, Paul[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="str">
         <f t="shared" si="2"/>
         <v>Glabe, Charles[Author]</v>
       </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>Glabe, Charles[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v>Glabe, Charles[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="str">
         <f t="shared" si="2"/>
         <v>Gonen, Shane[Author]</v>
       </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>Gonen, Shane[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
-        <v>Gonen, Shane[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>Goulding, Celia[Author]</v>
       </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>Goulding, Celia[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
-        <v>Goulding, Celia[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>Green, Kim[Author]</v>
       </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>Green, Kim[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
-        <v>Green, Kim[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="str">
         <f t="shared" si="2"/>
         <v>Green, Michael[Author]</v>
       </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>Green, Michael[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
-        <v>Green, Michael[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="str">
         <f t="shared" si="2"/>
         <v>Grill, Joshua[Author]</v>
       </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>Grill, Joshua[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
-        <v>Grill, Joshua[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="str">
         <f t="shared" si="2"/>
         <v>Gross, Steven[Author]</v>
       </c>
-      <c r="C49" t="str">
+      <c r="D48" t="str">
         <f t="shared" si="1"/>
         <v>Gross, Steven[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Guzowski, JF[Author]</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Guzowski, JF[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="2"/>
-        <v>Guzowski, John[Author]</v>
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="1"/>
-        <v>Guzowski, John[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="str">
         <f t="shared" si="2"/>
         <v>Halbrook, Christopher[Author]</v>
       </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>Halbrook, Christopher[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
       <c r="C51" t="str">
-        <f t="shared" si="1"/>
-        <v>Halbrook, Christopher[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="str">
         <f t="shared" si="2"/>
         <v>Hammer, Tobin[Author]</v>
       </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>Hammer, Tobin[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
       <c r="C52" t="str">
-        <f t="shared" si="1"/>
-        <v>Hammer, Tobin[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="str">
         <f t="shared" si="2"/>
         <v>Hicks, James[Author]</v>
       </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>Hicks, James[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
       <c r="C53" t="str">
-        <f t="shared" si="1"/>
-        <v>Hicks, James[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="str">
         <f t="shared" si="2"/>
         <v>Hu, Yilin[Author]</v>
       </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>Hu, Yilin[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
       <c r="C54" t="str">
-        <f t="shared" si="1"/>
-        <v>Hu, Yilin[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="str">
         <f t="shared" si="2"/>
         <v>Hughes, Bradley[Author]</v>
       </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>Hughes, Bradley[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
       <c r="C55" t="str">
-        <f t="shared" si="1"/>
-        <v>Hughes, Bradley[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="str">
         <f t="shared" si="2"/>
         <v>Hughes, Christopher[Author]</v>
       </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>Hughes, Christopher[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>63</v>
+      </c>
       <c r="C56" t="str">
-        <f t="shared" si="1"/>
-        <v>Hughes, Christopher[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="str">
         <f t="shared" si="2"/>
         <v>Huxman, Travis[Author]</v>
       </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>Huxman, Travis[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
       <c r="C57" t="str">
-        <f t="shared" si="1"/>
-        <v>Huxman, Travis[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="str">
         <f t="shared" si="2"/>
         <v>Inlay, Matthew[Author]</v>
       </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>Inlay, Matthew[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
       <c r="C58" t="str">
-        <f t="shared" si="1"/>
-        <v>Inlay, Matthew[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="str">
         <f t="shared" si="2"/>
         <v>James, Anthony[Author]</v>
       </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>James, Anthony[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>66</v>
+      </c>
       <c r="C59" t="str">
-        <f t="shared" si="1"/>
-        <v>James, Anthony[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="str">
         <f t="shared" si="2"/>
         <v>Kadandale, Pavan[Author]</v>
       </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>Kadandale, Pavan[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
       <c r="C60" t="str">
-        <f t="shared" si="1"/>
-        <v>Kadandale, Pavan[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="str">
         <f t="shared" si="2"/>
         <v>Kawas, Claudia[Author]</v>
       </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>Kawas, Claudia[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
       <c r="C61" t="str">
-        <f t="shared" si="1"/>
-        <v>Kawas, Claudia[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="str">
         <f t="shared" si="2"/>
         <v>Kong, Mei[Author]</v>
       </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>Kong, Mei[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
       <c r="C62" t="str">
-        <f t="shared" si="1"/>
-        <v>Kong, Mei[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="str">
         <f t="shared" si="2"/>
         <v>Kvon, Evgeny[Author]</v>
       </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>Kvon, Evgeny[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
       <c r="C63" t="str">
-        <f t="shared" si="1"/>
-        <v>Kvon, Evgeny[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="str">
         <f t="shared" si="2"/>
         <v>LaFerla, Frank[Author]</v>
       </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>LaFerla, Frank[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
       <c r="C64" t="str">
-        <f t="shared" si="1"/>
-        <v>LaFerla, Frank[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="str">
         <f t="shared" si="2"/>
         <v>Lamb, Joleah[Author]</v>
       </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>Lamb, Joleah[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
       <c r="C65" t="str">
-        <f t="shared" si="1"/>
-        <v>Lamb, Joleah[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <f t="shared" ref="C65:C96" si="3">_xlfn.CONCAT(B65,"[Author]")</f>
+        <v>Lander, Arthur[Author]</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>Lander, Arthur[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" ref="B66:B97" si="3">_xlfn.CONCAT(A66,"[Author]")</f>
-        <v>Lander, Arthur[Author]</v>
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="1"/>
-        <v>Lander, Arthur[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="str">
         <f t="shared" si="3"/>
         <v>Lane, Thomas[Author]</v>
       </c>
+      <c r="D66" t="str">
+        <f t="shared" ref="D66:D128" si="4">_xlfn.CONCAT(C66, " AND Irvine[Affiliation]")</f>
+        <v>Lane, Thomas[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C129" si="4">_xlfn.CONCAT(B67, " AND Irvine[Affiliation]")</f>
-        <v>Lane, Thomas[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="str">
         <f t="shared" si="3"/>
         <v>Lara-Gonzalez, Pablo[Author]</v>
       </c>
+      <c r="D67" t="str">
+        <f t="shared" si="4"/>
+        <v>Lara-Gonzalez, Pablo[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
       <c r="C68" t="str">
-        <f t="shared" si="4"/>
-        <v>Lara-Gonzalez, Pablo[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="str">
         <f t="shared" si="3"/>
         <v>Lee, Grace[Author]</v>
       </c>
+      <c r="D68" t="str">
+        <f t="shared" si="4"/>
+        <v>Lee, Grace[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
       <c r="C69" t="str">
-        <f t="shared" si="4"/>
-        <v>Lee, Grace[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="str">
         <f t="shared" si="3"/>
         <v>Lee, Star[Author]</v>
       </c>
+      <c r="D69" t="str">
+        <f t="shared" si="4"/>
+        <v>Lee, Star[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
       <c r="C70" t="str">
-        <f t="shared" si="4"/>
-        <v>Lee, Star[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="str">
         <f t="shared" si="3"/>
         <v>Lodoen, Melissa[Author]</v>
       </c>
+      <c r="D70" t="str">
+        <f t="shared" si="4"/>
+        <v>Lodoen, Melissa[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
       <c r="C71" t="str">
-        <f t="shared" si="4"/>
-        <v>Lodoen, Melissa[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="str">
         <f t="shared" si="3"/>
         <v>Long, Anthony[Author]</v>
       </c>
+      <c r="D71" t="str">
+        <f t="shared" si="4"/>
+        <v>Long, Anthony[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
       <c r="C72" t="str">
-        <f t="shared" si="4"/>
-        <v>Long, Anthony[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="str">
         <f t="shared" si="3"/>
         <v>Loudon, Catherine[Author]</v>
       </c>
+      <c r="D72" t="str">
+        <f t="shared" si="4"/>
+        <v>Loudon, Catherine[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
       <c r="C73" t="str">
-        <f t="shared" si="4"/>
-        <v>Loudon, Catherine[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="str">
         <f t="shared" si="3"/>
         <v>Luo, Ray[Author]</v>
       </c>
+      <c r="D73" t="str">
+        <f t="shared" si="4"/>
+        <v>Luo, Ray[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
       <c r="C74" t="str">
-        <f t="shared" si="4"/>
-        <v>Luo, Ray[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="str">
         <f t="shared" si="3"/>
         <v>Lur, Gyorgy[Author]</v>
       </c>
+      <c r="D74" t="str">
+        <f t="shared" si="4"/>
+        <v>Lur, Gyorgy[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
       <c r="C75" t="str">
-        <f t="shared" si="4"/>
-        <v>Lur, Gyorgy[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="str">
         <f t="shared" si="3"/>
         <v>Lutterschmidt, Deborah[Author]</v>
       </c>
+      <c r="D75" t="str">
+        <f t="shared" si="4"/>
+        <v>Lutterschmidt, Deborah[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
       <c r="C76" t="str">
-        <f t="shared" si="4"/>
-        <v>Lutterschmidt, Deborah[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="str">
         <f t="shared" si="3"/>
         <v>MacGregor, Grant[Author]</v>
       </c>
+      <c r="D76" t="str">
+        <f t="shared" si="4"/>
+        <v>MacGregor, Grant[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
       <c r="C77" t="str">
-        <f t="shared" si="4"/>
-        <v>MacGregor, Grant[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="str">
         <f t="shared" si="3"/>
         <v>Mahler, Stephen[Author]</v>
       </c>
+      <c r="D77" t="str">
+        <f t="shared" si="4"/>
+        <v>Mahler, Stephen[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
       <c r="C78" t="str">
-        <f t="shared" si="4"/>
-        <v>Mahler, Stephen[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="str">
         <f t="shared" si="3"/>
         <v>Martinez, Christopher[Author]</v>
       </c>
+      <c r="D78" t="str">
+        <f t="shared" si="4"/>
+        <v>Martinez, Christopher[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
       <c r="C79" t="str">
-        <f t="shared" si="4"/>
-        <v>Martinez, Christopher[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="str">
         <f t="shared" si="3"/>
         <v>Martiny, Adam[Author]</v>
       </c>
+      <c r="D79" t="str">
+        <f t="shared" si="4"/>
+        <v>Martiny, Adam[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
       <c r="C80" t="str">
-        <f t="shared" si="4"/>
-        <v>Martiny, Adam[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="str">
         <f t="shared" si="3"/>
         <v>Martiny, Jennifer[Author]</v>
       </c>
+      <c r="D80" t="str">
+        <f t="shared" si="4"/>
+        <v>Martiny, Jennifer[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
       <c r="C81" t="str">
-        <f t="shared" si="4"/>
-        <v>Martiny, Jennifer[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="str">
         <f t="shared" si="3"/>
         <v>McHenry, Matthew[Author]</v>
       </c>
+      <c r="D81" t="str">
+        <f t="shared" si="4"/>
+        <v>McHenry, Matthew[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
       <c r="C82" t="str">
-        <f t="shared" si="4"/>
-        <v>McHenry, Matthew[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="str">
         <f t="shared" si="3"/>
         <v>McNaughton, Bruce[Author]</v>
       </c>
+      <c r="D82" t="str">
+        <f t="shared" si="4"/>
+        <v>McNaughton, Bruce[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
       <c r="C83" t="str">
-        <f t="shared" si="4"/>
-        <v>McNaughton, Bruce[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="str">
         <f t="shared" si="3"/>
         <v>McNulty, Reginald[Author]</v>
       </c>
+      <c r="D83" t="str">
+        <f t="shared" si="4"/>
+        <v>McNulty, Reginald[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>91</v>
+      </c>
       <c r="C84" t="str">
-        <f t="shared" si="4"/>
-        <v>McNulty, Reginald[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="str">
         <f t="shared" si="3"/>
         <v>Metherate, Raju[Author]</v>
       </c>
+      <c r="D84" t="str">
+        <f t="shared" si="4"/>
+        <v>Metherate, Raju[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
       <c r="C85" t="str">
-        <f t="shared" si="4"/>
-        <v>Metherate, Raju[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="str">
         <f t="shared" si="3"/>
         <v>Mooney, Kailen[Author]</v>
       </c>
+      <c r="D85" t="str">
+        <f t="shared" si="4"/>
+        <v>Mooney, Kailen[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
       <c r="C86" t="str">
-        <f t="shared" si="4"/>
-        <v>Mooney, Kailen[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="str">
         <f t="shared" si="3"/>
         <v>Morehouse, Benjamin[Author]</v>
       </c>
+      <c r="D86" t="str">
+        <f t="shared" si="4"/>
+        <v>Morehouse, Benjamin[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
       <c r="C87" t="str">
-        <f t="shared" si="4"/>
-        <v>Morehouse, Benjamin[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="str">
         <f t="shared" si="3"/>
         <v>Morrissette, Naomi[Author]</v>
       </c>
-      <c r="C88" t="str">
+      <c r="D87" t="str">
         <f t="shared" si="4"/>
         <v>Morrissette, Naomi[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <f>_xlfn.CONCAT(B88,"[Author] OR 0000-0002-4259-6362[Author - Identifier]")</f>
+        <v>Mortazavi, Ali[Author] OR 0000-0002-4259-6362[Author - Identifier]</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f>_xlfn.CONCAT(C88)</f>
+        <v>Mortazavi, Ali[Author] OR 0000-0002-4259-6362[Author - Identifier]</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="str">
-        <f t="shared" si="3"/>
-        <v>Mortazavi, Seyed Ali[Author]</v>
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="4"/>
-        <v>Mortazavi, Seyed Ali[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="str">
         <f t="shared" si="3"/>
         <v>Mulligan, Michael[Author]</v>
       </c>
+      <c r="D89" t="str">
+        <f t="shared" si="4"/>
+        <v>Mulligan, Michael[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
       <c r="C90" t="str">
-        <f t="shared" si="4"/>
-        <v>Mulligan, Michael[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="str">
         <f t="shared" si="3"/>
         <v>Nicholas, Andrea[Author]</v>
       </c>
+      <c r="D90" t="str">
+        <f t="shared" si="4"/>
+        <v>Nicholas, Andrea[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
       <c r="C91" t="str">
-        <f t="shared" si="4"/>
-        <v>Nicholas, Andrea[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="str">
         <f t="shared" si="3"/>
         <v>Nicholas, Dequina[Author]</v>
       </c>
+      <c r="D91" t="str">
+        <f t="shared" si="4"/>
+        <v>Nicholas, Dequina[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
       <c r="C92" t="str">
-        <f t="shared" si="4"/>
-        <v>Nicholas, Dequina[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="str">
         <f t="shared" si="3"/>
         <v>Nie, Qing[Author]</v>
       </c>
+      <c r="D92" t="str">
+        <f t="shared" si="4"/>
+        <v>Nie, Qing[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
       <c r="C93" t="str">
-        <f t="shared" si="4"/>
-        <v>Nie, Qing[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="str">
         <f t="shared" si="3"/>
         <v>O'Dowd, Diane[Author]</v>
       </c>
+      <c r="D93" t="str">
+        <f t="shared" si="4"/>
+        <v>O'Dowd, Diane[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
       <c r="C94" t="str">
-        <f t="shared" si="4"/>
-        <v>O'Dowd, Diane[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="str">
         <f t="shared" si="3"/>
         <v>Parsons, Michael[Author]</v>
       </c>
+      <c r="D94" t="str">
+        <f t="shared" si="4"/>
+        <v>Parsons, Michael[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
       <c r="C95" t="str">
-        <f t="shared" si="4"/>
-        <v>Parsons, Michael[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="str">
         <f t="shared" si="3"/>
         <v>Plikus, Maksim[Author]</v>
       </c>
+      <c r="D95" t="str">
+        <f t="shared" si="4"/>
+        <v>Plikus, Maksim[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
       <c r="C96" t="str">
-        <f t="shared" si="4"/>
-        <v>Plikus, Maksim[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="str">
         <f t="shared" si="3"/>
         <v>Pratt, Jessica[Author]</v>
       </c>
+      <c r="D96" t="str">
+        <f t="shared" si="4"/>
+        <v>Pratt, Jessica[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
       <c r="C97" t="str">
-        <f t="shared" si="4"/>
-        <v>Pratt, Jessica[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <f t="shared" ref="C97:C108" si="5">_xlfn.CONCAT(B97,"[Author]")</f>
+        <v>Ranz, Jose[Author]</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="4"/>
+        <v>Ranz, Jose[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="str">
-        <f t="shared" ref="B98:B109" si="5">_xlfn.CONCAT(A98,"[Author]")</f>
-        <v>Ranz, Jose[Author]</v>
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="4"/>
-        <v>Ranz, Jose[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="str">
         <f t="shared" si="5"/>
         <v>Razorenova, Olga[Author]</v>
       </c>
+      <c r="D98" t="str">
+        <f t="shared" si="4"/>
+        <v>Razorenova, Olga[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
       <c r="C99" t="str">
-        <f t="shared" si="4"/>
-        <v>Razorenova, Olga[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="str">
         <f t="shared" si="5"/>
         <v>Rebolleda-Gomez, Maria[Author]</v>
       </c>
+      <c r="D99" t="str">
+        <f t="shared" si="4"/>
+        <v>Rebolleda-Gomez, Maria[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
       <c r="C100" t="str">
-        <f t="shared" si="4"/>
-        <v>Rebolleda-Gomez, Maria[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="str">
         <f t="shared" si="5"/>
         <v>Ribbe, Markus[Author]</v>
       </c>
+      <c r="D100" t="str">
+        <f t="shared" si="4"/>
+        <v>Ribbe, Markus[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
       <c r="C101" t="str">
-        <f t="shared" si="4"/>
-        <v>Ribbe, Markus[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="str">
         <f t="shared" si="5"/>
         <v>Rodriguez Verdugo, Alejandra[Author]</v>
       </c>
+      <c r="D101" t="str">
+        <f t="shared" si="4"/>
+        <v>Rodriguez Verdugo, Alejandra[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
       <c r="C102" t="str">
-        <f t="shared" si="4"/>
-        <v>Rodriguez Verdugo, Alejandra[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="str">
         <f t="shared" si="5"/>
         <v>Sato, Brian[Author]</v>
       </c>
+      <c r="D102" t="str">
+        <f t="shared" si="4"/>
+        <v>Sato, Brian[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
       <c r="C103" t="str">
-        <f t="shared" si="4"/>
-        <v>Sato, Brian[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <f>_xlfn.CONCAT(B103,"[Author] OR 0000-0002-8127-012X[Author - Identifier]")</f>
+        <v>Schechtman-Drayman, Eitan[Author] OR 0000-0002-8127-012X[Author - Identifier]</v>
+      </c>
+      <c r="D103" t="str">
+        <f>_xlfn.CONCAT(C103, " AND Irvine[Affiliation]")</f>
+        <v>Schechtman-Drayman, Eitan[Author] OR 0000-0002-8127-012X[Author - Identifier] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="str">
-        <f t="shared" si="5"/>
-        <v>Schechtman-Drayman, Eitan[Author]</v>
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="4"/>
-        <v>Schechtman-Drayman, Eitan[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="str">
         <f t="shared" si="5"/>
         <v>Schilling, Thomas[Author]</v>
       </c>
+      <c r="D104" t="str">
+        <f t="shared" si="4"/>
+        <v>Schilling, Thomas[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
       <c r="C105" t="str">
-        <f t="shared" si="4"/>
-        <v>Schilling, Thomas[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="str">
         <f t="shared" si="5"/>
         <v>Shi, Xiaoyu[Author]</v>
       </c>
+      <c r="D105" t="str">
+        <f t="shared" si="4"/>
+        <v>Shi, Xiaoyu[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
       <c r="C106" t="str">
-        <f t="shared" si="4"/>
-        <v>Shi, Xiaoyu[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="str">
         <f t="shared" si="5"/>
         <v>Sorte, Cascade[Author]</v>
       </c>
+      <c r="D106" t="str">
+        <f t="shared" si="4"/>
+        <v>Sorte, Cascade[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
       <c r="C107" t="str">
-        <f t="shared" si="4"/>
-        <v>Sorte, Cascade[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="str">
         <f t="shared" si="5"/>
         <v>Stark, Craig[Author]</v>
       </c>
+      <c r="D107" t="str">
+        <f t="shared" si="4"/>
+        <v>Stark, Craig[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
       <c r="C108" t="str">
-        <f t="shared" si="4"/>
-        <v>Stark, Craig[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="str">
         <f t="shared" si="5"/>
         <v>Striedter, Georg[Author]</v>
       </c>
+      <c r="D108" t="str">
+        <f t="shared" si="4"/>
+        <v>Striedter, Georg[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
       <c r="C109" t="str">
-        <f t="shared" si="4"/>
-        <v>Striedter, Georg[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <f>_xlfn.CONCAT(B109,"[Author] OR 0000-0003-1354-507X[Author - Identifier]")</f>
+        <v>Suetterlin, Christine[Author] OR 0000-0003-1354-507X[Author - Identifier]</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="4"/>
+        <v>Suetterlin, Christine[Author] OR 0000-0003-1354-507X[Author - Identifier] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="str">
-        <f>_xlfn.CONCAT(A110,"[Author] OR 0000-0003-1354-507X[Author - Identifier]")</f>
-        <v>Suetterlin, Christine[Author] OR 0000-0003-1354-507X[Author - Identifier]</v>
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>117</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="4"/>
-        <v>Suetterlin, Christine[Author] OR 0000-0003-1354-507X[Author - Identifier] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <f t="shared" ref="C110:C127" si="6">_xlfn.CONCAT(B110,"[Author]")</f>
+        <v>Sumikawa, Katumi[Author]</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="4"/>
+        <v>Sumikawa, Katumi[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="str">
-        <f t="shared" ref="B111:B129" si="6">_xlfn.CONCAT(A111,"[Author]")</f>
-        <v>Sumikawa, Katumi[Author]</v>
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="4"/>
-        <v>Sumikawa, Katumi[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="str">
         <f t="shared" si="6"/>
         <v>Sun, Sha[Author]</v>
       </c>
+      <c r="D111" t="str">
+        <f t="shared" si="4"/>
+        <v>Sun, Sha[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
       <c r="C112" t="str">
-        <f t="shared" si="4"/>
-        <v>Sun, Sha[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="str">
         <f t="shared" si="6"/>
         <v>Swarup, Vivek[Author]</v>
       </c>
+      <c r="D112" t="str">
+        <f t="shared" si="4"/>
+        <v>Swarup, Vivek[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
       <c r="C113" t="str">
-        <f t="shared" si="4"/>
-        <v>Swarup, Vivek[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" t="str">
         <f t="shared" si="6"/>
         <v>Symons, Celia[Author]</v>
       </c>
+      <c r="D113" t="str">
+        <f t="shared" si="4"/>
+        <v>Symons, Celia[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
       <c r="C114" t="str">
-        <f t="shared" si="4"/>
-        <v>Symons, Celia[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="str">
         <f t="shared" si="6"/>
         <v>Tenner, Andrea[Author]</v>
       </c>
+      <c r="D114" t="str">
+        <f t="shared" si="4"/>
+        <v>Tenner, Andrea[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
       <c r="C115" t="str">
-        <f t="shared" si="4"/>
-        <v>Tenner, Andrea[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="str">
         <f t="shared" si="6"/>
         <v>Thompson-Peer, Katherine[Author]</v>
       </c>
+      <c r="D115" t="str">
+        <f t="shared" si="4"/>
+        <v>Thompson-Peer, Katherine[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
       <c r="C116" t="str">
-        <f t="shared" si="4"/>
-        <v>Thompson-Peer, Katherine[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="str">
         <f t="shared" si="6"/>
         <v>Thompson, Leslie[Author]</v>
       </c>
+      <c r="D116" t="str">
+        <f t="shared" si="4"/>
+        <v>Thompson, Leslie[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
       <c r="C117" t="str">
-        <f t="shared" si="4"/>
-        <v>Thompson, Leslie[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" t="str">
         <f t="shared" si="6"/>
         <v>Thornton, Kevin[Author]</v>
       </c>
+      <c r="D117" t="str">
+        <f t="shared" si="4"/>
+        <v>Thornton, Kevin[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
       <c r="C118" t="str">
-        <f t="shared" si="4"/>
-        <v>Thornton, Kevin[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="str">
         <f t="shared" si="6"/>
         <v>Tinoco, Roberto[Author]</v>
       </c>
+      <c r="D118" t="str">
+        <f t="shared" si="4"/>
+        <v>Tinoco, Roberto[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
       <c r="C119" t="str">
-        <f t="shared" si="4"/>
-        <v>Tinoco, Roberto[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" t="str">
         <f t="shared" si="6"/>
         <v>Treseder, Kathleen[Author]</v>
       </c>
+      <c r="D119" t="str">
+        <f t="shared" si="4"/>
+        <v>Treseder, Kathleen[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" t="s">
+        <v>127</v>
+      </c>
       <c r="C120" t="str">
-        <f t="shared" si="4"/>
-        <v>Treseder, Kathleen[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" t="str">
         <f t="shared" si="6"/>
         <v>Tsai, Shiou-Chuan[Author]</v>
       </c>
+      <c r="D120" t="str">
+        <f t="shared" si="4"/>
+        <v>Tsai, Shiou-Chuan[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B121" t="s">
+        <v>128</v>
+      </c>
       <c r="C121" t="str">
-        <f t="shared" si="4"/>
-        <v>Tsai, Shiou-Chuan[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" t="str">
         <f t="shared" si="6"/>
         <v>Walsh, Craig[Author]</v>
       </c>
+      <c r="D121" t="str">
+        <f t="shared" si="4"/>
+        <v>Walsh, Craig[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
       <c r="C122" t="str">
-        <f t="shared" si="4"/>
-        <v>Walsh, Craig[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" t="str">
         <f t="shared" si="6"/>
         <v>Wang, Wenqi[Author]</v>
       </c>
+      <c r="D122" t="str">
+        <f t="shared" si="4"/>
+        <v>Wang, Wenqi[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
       <c r="C123" t="str">
-        <f t="shared" si="4"/>
-        <v>Wang, Wenqi[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" t="str">
         <f t="shared" si="6"/>
         <v>Warrior, Rahul[Author]</v>
       </c>
+      <c r="D123" t="str">
+        <f t="shared" si="4"/>
+        <v>Warrior, Rahul[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>131</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
       <c r="C124" t="str">
-        <f t="shared" si="4"/>
-        <v>Warrior, Rahul[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" t="str">
         <f t="shared" si="6"/>
         <v>Whiteson, Katrine[Author]</v>
       </c>
-      <c r="C125" t="str">
+      <c r="D124" t="str">
         <f t="shared" si="4"/>
         <v>Whiteson, Katrine[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" s="1" t="str">
+        <f>_xlfn.CONCAT(B125,"[Author] OR 0000-0002-5336-7565[Author - Identifier]")</f>
+        <v>Wiles, TJ [Author] OR 0000-0002-5336-7565[Author - Identifier]</v>
+      </c>
+      <c r="D125" s="1" t="str">
+        <f>_xlfn.CONCAT(C125)</f>
+        <v>Wiles, TJ [Author] OR 0000-0002-5336-7565[Author - Identifier]</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="6"/>
-        <v>Wiles, Travis [Author]</v>
+        <v>133</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="4"/>
-        <v>Wiles, Travis [Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" t="str">
         <f t="shared" si="6"/>
         <v>Williams, Adrienne[Author]</v>
       </c>
+      <c r="D126" t="str">
+        <f t="shared" si="4"/>
+        <v>Williams, Adrienne[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
       <c r="C127" t="str">
-        <f t="shared" si="4"/>
-        <v>Williams, Adrienne[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" t="str">
         <f t="shared" si="6"/>
         <v>Wood, Marcelo[Author]</v>
       </c>
+      <c r="D127" t="str">
+        <f t="shared" si="4"/>
+        <v>Wood, Marcelo[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>135</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
       <c r="C128" t="str">
-        <f t="shared" si="4"/>
-        <v>Wood, Marcelo[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="6"/>
+        <f>_xlfn.CONCAT(B128,"[Author]")</f>
         <v>Yassa, Michael[Author]</v>
       </c>
-      <c r="C129" t="str">
+      <c r="D128" t="str">
         <f t="shared" si="4"/>
         <v>Yassa, Michael[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B129" xr:uid="{FB22B5D1-2679-0245-9D4C-9BA6625E7CF7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B129">
-      <sortCondition ref="B1:B129"/>
+  <autoFilter ref="B1:C128" xr:uid="{FB22B5D1-2679-0245-9D4C-9BA6625E7CF7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C128">
+      <sortCondition ref="C1:C128"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2788,9 +3304,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C72FCFA-11A1-4BBA-8E43-18795F416767}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C72FCFA-11A1-4BBA-8E43-18795F416767}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ccd2e96c-ba06-41a4-9d14-ee5d4767a409"/>
+    <ds:schemaRef ds:uri="b238fc39-fcbb-4f8c-bfd3-e3a789f7784e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39C6C2A0-A411-44FC-B12B-70F8C6BA2343}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39C6C2A0-A411-44FC-B12B-70F8C6BA2343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BioSci Faculty.xlsx
+++ b/BioSci Faculty.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucirvine.sharepoint.com/sites/BioSci-Contracts&amp;Grants-Team/Shared Documents/BioSci Research Development/Faculty-Keyword-Inventory-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucirvine.sharepoint.com/sites/BioSci-Contracts&amp;Grants-Team/Shared Documents/BioSci Research Development/Faculty-Keyword-Inventory-Project/faculty-mapped-mesh-terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{A939E89F-4417-D54D-B374-0BBA28533745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F32F208D-8DAB-F94C-A26E-28E28F3C53F4}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{A939E89F-4417-D54D-B374-0BBA28533745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF87A24-733C-F248-A2AD-6CBB52317DA5}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{816B7ECC-D01A-4F40-81B4-3F46E6204442}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{816B7ECC-D01A-4F40-81B4-3F46E6204442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$125</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -96,7 +96,7 @@
     Changed first name to “JF”.</t>
       </text>
     </comment>
-    <comment ref="D88" authorId="5" shapeId="0" xr:uid="{6C672D08-6083-624C-B384-785768E8065F}">
+    <comment ref="D87" authorId="5" shapeId="0" xr:uid="{6C672D08-6083-624C-B384-785768E8065F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +106,7 @@
     Maybe we could add author identifier for him as well?</t>
       </text>
     </comment>
-    <comment ref="D125" authorId="6" shapeId="0" xr:uid="{B81B1537-D3E3-F14C-9639-ADFD215F7FE9}">
+    <comment ref="D122" authorId="6" shapeId="0" xr:uid="{B81B1537-D3E3-F14C-9639-ADFD215F7FE9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="134">
   <si>
     <t>Faculty_Full_Name</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Hammer, Tobin</t>
   </si>
   <si>
-    <t>Hicks, James</t>
-  </si>
-  <si>
     <t>Hu, Yilin</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>Mortazavi, Ali</t>
   </si>
   <si>
-    <t>Mulligan, Michael</t>
-  </si>
-  <si>
     <t>Nicholas, Andrea</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>Nie, Qing</t>
   </si>
   <si>
-    <t>O'Dowd, Diane</t>
-  </si>
-  <si>
     <t>Parsons, Michael</t>
   </si>
   <si>
@@ -527,6 +518,9 @@
   </si>
   <si>
     <t>Yassa, Michael</t>
+  </si>
+  <si>
+    <t>Wiles, Travis</t>
   </si>
 </sst>
 </file>
@@ -541,18 +535,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -569,7 +557,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,13 +923,13 @@
   <threadedComment ref="D49" dT="2024-10-01T00:14:01.93" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{9B0B3B44-A992-6443-9F4A-4337C34362B5}" done="1">
     <text>Changed first name to “JF”.</text>
   </threadedComment>
-  <threadedComment ref="D88" dT="2024-10-01T00:14:57.33" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{6C672D08-6083-624C-B384-785768E8065F}" done="1">
+  <threadedComment ref="D87" dT="2024-10-01T00:14:57.33" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{6C672D08-6083-624C-B384-785768E8065F}" done="1">
     <text>When I search for him in PubMed, I get &gt;90 results… so the API isn’t finding his publications?</text>
   </threadedComment>
-  <threadedComment ref="D88" dT="2024-10-01T18:28:39.89" personId="{3D84B400-D1D7-4A62-8611-C1035FD41DD3}" id="{5D503EBF-D2C9-4E11-83BA-8A5B29BEABC4}" parentId="{6C672D08-6083-624C-B384-785768E8065F}">
+  <threadedComment ref="D87" dT="2024-10-01T18:28:39.89" personId="{3D84B400-D1D7-4A62-8611-C1035FD41DD3}" id="{5D503EBF-D2C9-4E11-83BA-8A5B29BEABC4}" parentId="{6C672D08-6083-624C-B384-785768E8065F}">
     <text>Maybe we could add author identifier for him as well?</text>
   </threadedComment>
-  <threadedComment ref="D125" dT="2024-10-01T00:18:05.88" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{B81B1537-D3E3-F14C-9639-ADFD215F7FE9}" done="1">
+  <threadedComment ref="D122" dT="2024-10-01T00:18:05.88" personId="{AC6D7775-F5D4-194A-BFE7-08B2941E712F}" id="{B81B1537-D3E3-F14C-9639-ADFD215F7FE9}" done="1">
     <text>Added author identifier</text>
   </threadedComment>
 </ThreadedComments>
@@ -949,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB22B5D1-2679-0245-9D4C-9BA6625E7CF7}">
-  <dimension ref="A1:D128"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,7 +993,7 @@
         <v>Allison, Steven[Author]</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D65" si="1">_xlfn.CONCAT(C3, " AND Irvine[Affiliation]")</f>
+        <f t="shared" ref="D3:D64" si="1">_xlfn.CONCAT(C3, " AND Irvine[Affiliation]")</f>
         <v>Allison, Steven[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
@@ -1480,7 +1468,7 @@
         <v>38</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:C64" si="2">_xlfn.CONCAT(B33,"[Author]")</f>
+        <f t="shared" ref="C33:C63" si="2">_xlfn.CONCAT(B33,"[Author]")</f>
         <v>Fortin, Norbert[Author]</v>
       </c>
       <c r="D33" t="str">
@@ -1785,11 +1773,11 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="2"/>
-        <v>Hicks, James[Author]</v>
+        <v>Hu, Yilin[Author]</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
-        <v>Hicks, James[Author] AND Irvine[Affiliation]</v>
+        <v>Hu, Yilin[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,11 +1789,11 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="2"/>
-        <v>Hu, Yilin[Author]</v>
+        <v>Hughes, Bradley[Author]</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
-        <v>Hu, Yilin[Author] AND Irvine[Affiliation]</v>
+        <v>Hughes, Bradley[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,11 +1805,11 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" si="2"/>
-        <v>Hughes, Bradley[Author]</v>
+        <v>Hughes, Christopher[Author]</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
-        <v>Hughes, Bradley[Author] AND Irvine[Affiliation]</v>
+        <v>Hughes, Christopher[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1833,11 +1821,11 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="2"/>
-        <v>Hughes, Christopher[Author]</v>
+        <v>Huxman, Travis[Author]</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
-        <v>Hughes, Christopher[Author] AND Irvine[Affiliation]</v>
+        <v>Huxman, Travis[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1849,11 +1837,11 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="2"/>
-        <v>Huxman, Travis[Author]</v>
+        <v>Inlay, Matthew[Author]</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>Huxman, Travis[Author] AND Irvine[Affiliation]</v>
+        <v>Inlay, Matthew[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1865,11 +1853,11 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
-        <v>Inlay, Matthew[Author]</v>
+        <v>James, Anthony[Author]</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
-        <v>Inlay, Matthew[Author] AND Irvine[Affiliation]</v>
+        <v>James, Anthony[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1881,11 +1869,11 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
-        <v>James, Anthony[Author]</v>
+        <v>Kadandale, Pavan[Author]</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
-        <v>James, Anthony[Author] AND Irvine[Affiliation]</v>
+        <v>Kadandale, Pavan[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1897,11 +1885,11 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
-        <v>Kadandale, Pavan[Author]</v>
+        <v>Kawas, Claudia[Author]</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>Kadandale, Pavan[Author] AND Irvine[Affiliation]</v>
+        <v>Kawas, Claudia[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1913,11 +1901,11 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
-        <v>Kawas, Claudia[Author]</v>
+        <v>Kong, Mei[Author]</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>Kawas, Claudia[Author] AND Irvine[Affiliation]</v>
+        <v>Kong, Mei[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,11 +1917,11 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
-        <v>Kong, Mei[Author]</v>
+        <v>Kvon, Evgeny[Author]</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
-        <v>Kong, Mei[Author] AND Irvine[Affiliation]</v>
+        <v>Kvon, Evgeny[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1945,11 +1933,11 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
-        <v>Kvon, Evgeny[Author]</v>
+        <v>LaFerla, Frank[Author]</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
-        <v>Kvon, Evgeny[Author] AND Irvine[Affiliation]</v>
+        <v>LaFerla, Frank[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,11 +1949,11 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
-        <v>LaFerla, Frank[Author]</v>
+        <v>Lamb, Joleah[Author]</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
-        <v>LaFerla, Frank[Author] AND Irvine[Affiliation]</v>
+        <v>Lamb, Joleah[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,12 +1964,12 @@
         <v>71</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="2"/>
-        <v>Lamb, Joleah[Author]</v>
+        <f t="shared" ref="C64:C93" si="3">_xlfn.CONCAT(B64,"[Author]")</f>
+        <v>Lander, Arthur[Author]</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
-        <v>Lamb, Joleah[Author] AND Irvine[Affiliation]</v>
+        <v>Lander, Arthur[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1992,12 +1980,12 @@
         <v>72</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ref="C65:C96" si="3">_xlfn.CONCAT(B65,"[Author]")</f>
-        <v>Lander, Arthur[Author]</v>
+        <f t="shared" si="3"/>
+        <v>Lane, Thomas[Author]</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="1"/>
-        <v>Lander, Arthur[Author] AND Irvine[Affiliation]</v>
+        <f t="shared" ref="D65:D125" si="4">_xlfn.CONCAT(C65, " AND Irvine[Affiliation]")</f>
+        <v>Lane, Thomas[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,11 +1997,11 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" si="3"/>
-        <v>Lane, Thomas[Author]</v>
+        <v>Lara-Gonzalez, Pablo[Author]</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" ref="D66:D128" si="4">_xlfn.CONCAT(C66, " AND Irvine[Affiliation]")</f>
-        <v>Lane, Thomas[Author] AND Irvine[Affiliation]</v>
+        <f t="shared" si="4"/>
+        <v>Lara-Gonzalez, Pablo[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2025,11 +2013,11 @@
       </c>
       <c r="C67" t="str">
         <f t="shared" si="3"/>
-        <v>Lara-Gonzalez, Pablo[Author]</v>
+        <v>Lee, Grace[Author]</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="4"/>
-        <v>Lara-Gonzalez, Pablo[Author] AND Irvine[Affiliation]</v>
+        <v>Lee, Grace[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2041,11 +2029,11 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="3"/>
-        <v>Lee, Grace[Author]</v>
+        <v>Lee, Star[Author]</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="4"/>
-        <v>Lee, Grace[Author] AND Irvine[Affiliation]</v>
+        <v>Lee, Star[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,11 +2045,11 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" si="3"/>
-        <v>Lee, Star[Author]</v>
+        <v>Lodoen, Melissa[Author]</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="4"/>
-        <v>Lee, Star[Author] AND Irvine[Affiliation]</v>
+        <v>Lodoen, Melissa[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2073,11 +2061,11 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="3"/>
-        <v>Lodoen, Melissa[Author]</v>
+        <v>Long, Anthony[Author]</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="4"/>
-        <v>Lodoen, Melissa[Author] AND Irvine[Affiliation]</v>
+        <v>Long, Anthony[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2089,11 +2077,11 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="3"/>
-        <v>Long, Anthony[Author]</v>
+        <v>Loudon, Catherine[Author]</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="4"/>
-        <v>Long, Anthony[Author] AND Irvine[Affiliation]</v>
+        <v>Loudon, Catherine[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2105,11 +2093,11 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="3"/>
-        <v>Loudon, Catherine[Author]</v>
+        <v>Luo, Ray[Author]</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="4"/>
-        <v>Loudon, Catherine[Author] AND Irvine[Affiliation]</v>
+        <v>Luo, Ray[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2121,11 +2109,11 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
-        <v>Luo, Ray[Author]</v>
+        <v>Lur, Gyorgy[Author]</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="4"/>
-        <v>Luo, Ray[Author] AND Irvine[Affiliation]</v>
+        <v>Lur, Gyorgy[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2137,11 +2125,11 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
-        <v>Lur, Gyorgy[Author]</v>
+        <v>Lutterschmidt, Deborah[Author]</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="4"/>
-        <v>Lur, Gyorgy[Author] AND Irvine[Affiliation]</v>
+        <v>Lutterschmidt, Deborah[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,11 +2141,11 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
-        <v>Lutterschmidt, Deborah[Author]</v>
+        <v>MacGregor, Grant[Author]</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="4"/>
-        <v>Lutterschmidt, Deborah[Author] AND Irvine[Affiliation]</v>
+        <v>MacGregor, Grant[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2169,11 +2157,11 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
-        <v>MacGregor, Grant[Author]</v>
+        <v>Mahler, Stephen[Author]</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="4"/>
-        <v>MacGregor, Grant[Author] AND Irvine[Affiliation]</v>
+        <v>Mahler, Stephen[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2185,11 +2173,11 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
-        <v>Mahler, Stephen[Author]</v>
+        <v>Martinez, Christopher[Author]</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="4"/>
-        <v>Mahler, Stephen[Author] AND Irvine[Affiliation]</v>
+        <v>Martinez, Christopher[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2201,11 +2189,11 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
-        <v>Martinez, Christopher[Author]</v>
+        <v>Martiny, Adam[Author]</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="4"/>
-        <v>Martinez, Christopher[Author] AND Irvine[Affiliation]</v>
+        <v>Martiny, Adam[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2217,11 +2205,11 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
-        <v>Martiny, Adam[Author]</v>
+        <v>Martiny, Jennifer[Author]</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="4"/>
-        <v>Martiny, Adam[Author] AND Irvine[Affiliation]</v>
+        <v>Martiny, Jennifer[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2233,11 +2221,11 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
-        <v>Martiny, Jennifer[Author]</v>
+        <v>McHenry, Matthew[Author]</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="4"/>
-        <v>Martiny, Jennifer[Author] AND Irvine[Affiliation]</v>
+        <v>McHenry, Matthew[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2249,11 +2237,11 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
-        <v>McHenry, Matthew[Author]</v>
+        <v>McNaughton, Bruce[Author]</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="4"/>
-        <v>McHenry, Matthew[Author] AND Irvine[Affiliation]</v>
+        <v>McNaughton, Bruce[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,11 +2253,11 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
-        <v>McNaughton, Bruce[Author]</v>
+        <v>McNulty, Reginald[Author]</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="4"/>
-        <v>McNaughton, Bruce[Author] AND Irvine[Affiliation]</v>
+        <v>McNulty, Reginald[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2281,11 +2269,11 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
-        <v>McNulty, Reginald[Author]</v>
+        <v>Metherate, Raju[Author]</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="4"/>
-        <v>McNulty, Reginald[Author] AND Irvine[Affiliation]</v>
+        <v>Metherate, Raju[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2297,11 +2285,11 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="3"/>
-        <v>Metherate, Raju[Author]</v>
+        <v>Mooney, Kailen[Author]</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="4"/>
-        <v>Metherate, Raju[Author] AND Irvine[Affiliation]</v>
+        <v>Mooney, Kailen[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2313,11 +2301,11 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="3"/>
-        <v>Mooney, Kailen[Author]</v>
+        <v>Morehouse, Benjamin[Author]</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="4"/>
-        <v>Mooney, Kailen[Author] AND Irvine[Affiliation]</v>
+        <v>Morehouse, Benjamin[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,43 +2317,43 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="3"/>
-        <v>Morehouse, Benjamin[Author]</v>
+        <v>Morrissette, Naomi[Author]</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="4"/>
-        <v>Morehouse, Benjamin[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+        <v>Morrissette, Naomi[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87" s="1" t="str">
+        <f>_xlfn.CONCAT(B87,"[Author] OR 0000-0002-4259-6362[Author - Identifier]")</f>
+        <v>Mortazavi, Ali[Author] OR 0000-0002-4259-6362[Author - Identifier]</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>_xlfn.CONCAT(C87)</f>
+        <v>Mortazavi, Ali[Author] OR 0000-0002-4259-6362[Author - Identifier]</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="str">
         <f t="shared" si="3"/>
-        <v>Morrissette, Naomi[Author]</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="4"/>
-        <v>Morrissette, Naomi[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" s="1" t="str">
-        <f>_xlfn.CONCAT(B88,"[Author] OR 0000-0002-4259-6362[Author - Identifier]")</f>
-        <v>Mortazavi, Ali[Author] OR 0000-0002-4259-6362[Author - Identifier]</v>
-      </c>
-      <c r="D88" s="1" t="str">
-        <f>_xlfn.CONCAT(C88)</f>
-        <v>Mortazavi, Ali[Author] OR 0000-0002-4259-6362[Author - Identifier]</v>
+        <v>Nicholas, Andrea[Author]</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="4"/>
+        <v>Nicholas, Andrea[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,11 +2365,11 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="3"/>
-        <v>Mulligan, Michael[Author]</v>
+        <v>Nicholas, Dequina[Author]</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="4"/>
-        <v>Mulligan, Michael[Author] AND Irvine[Affiliation]</v>
+        <v>Nicholas, Dequina[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2393,11 +2381,11 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="3"/>
-        <v>Nicholas, Andrea[Author]</v>
+        <v>Nie, Qing[Author]</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="4"/>
-        <v>Nicholas, Andrea[Author] AND Irvine[Affiliation]</v>
+        <v>Nie, Qing[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2409,11 +2397,11 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="3"/>
-        <v>Nicholas, Dequina[Author]</v>
+        <v>Parsons, Michael[Author]</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="4"/>
-        <v>Nicholas, Dequina[Author] AND Irvine[Affiliation]</v>
+        <v>Parsons, Michael[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2425,11 +2413,11 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="3"/>
-        <v>Nie, Qing[Author]</v>
+        <v>Plikus, Maksim[Author]</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="4"/>
-        <v>Nie, Qing[Author] AND Irvine[Affiliation]</v>
+        <v>Plikus, Maksim[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2441,11 +2429,11 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="3"/>
-        <v>O'Dowd, Diane[Author]</v>
+        <v>Pratt, Jessica[Author]</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="4"/>
-        <v>O'Dowd, Diane[Author] AND Irvine[Affiliation]</v>
+        <v>Pratt, Jessica[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2456,12 +2444,12 @@
         <v>101</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="3"/>
-        <v>Parsons, Michael[Author]</v>
+        <f t="shared" ref="C94:C105" si="5">_xlfn.CONCAT(B94,"[Author]")</f>
+        <v>Ranz, Jose[Author]</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="4"/>
-        <v>Parsons, Michael[Author] AND Irvine[Affiliation]</v>
+        <v>Ranz, Jose[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2472,12 +2460,12 @@
         <v>102</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="3"/>
-        <v>Plikus, Maksim[Author]</v>
+        <f t="shared" si="5"/>
+        <v>Razorenova, Olga[Author]</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="4"/>
-        <v>Plikus, Maksim[Author] AND Irvine[Affiliation]</v>
+        <v>Razorenova, Olga[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2488,12 +2476,12 @@
         <v>103</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="3"/>
-        <v>Pratt, Jessica[Author]</v>
+        <f t="shared" si="5"/>
+        <v>Rebolleda-Gomez, Maria[Author]</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="4"/>
-        <v>Pratt, Jessica[Author] AND Irvine[Affiliation]</v>
+        <v>Rebolleda-Gomez, Maria[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2504,12 +2492,12 @@
         <v>104</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ref="C97:C108" si="5">_xlfn.CONCAT(B97,"[Author]")</f>
-        <v>Ranz, Jose[Author]</v>
+        <f t="shared" si="5"/>
+        <v>Ribbe, Markus[Author]</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="4"/>
-        <v>Ranz, Jose[Author] AND Irvine[Affiliation]</v>
+        <v>Ribbe, Markus[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2521,11 +2509,11 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="5"/>
-        <v>Razorenova, Olga[Author]</v>
+        <v>Rodriguez Verdugo, Alejandra[Author]</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="4"/>
-        <v>Razorenova, Olga[Author] AND Irvine[Affiliation]</v>
+        <v>Rodriguez Verdugo, Alejandra[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2537,11 +2525,11 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="5"/>
-        <v>Rebolleda-Gomez, Maria[Author]</v>
+        <v>Sato, Brian[Author]</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="4"/>
-        <v>Rebolleda-Gomez, Maria[Author] AND Irvine[Affiliation]</v>
+        <v>Sato, Brian[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2552,12 +2540,12 @@
         <v>107</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="5"/>
-        <v>Ribbe, Markus[Author]</v>
+        <f>_xlfn.CONCAT(B100,"[Author] OR 0000-0002-8127-012X[Author - Identifier]")</f>
+        <v>Schechtman-Drayman, Eitan[Author] OR 0000-0002-8127-012X[Author - Identifier]</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="4"/>
-        <v>Ribbe, Markus[Author] AND Irvine[Affiliation]</v>
+        <f>_xlfn.CONCAT(C100, " AND Irvine[Affiliation]")</f>
+        <v>Schechtman-Drayman, Eitan[Author] OR 0000-0002-8127-012X[Author - Identifier] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2569,11 +2557,11 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="5"/>
-        <v>Rodriguez Verdugo, Alejandra[Author]</v>
+        <v>Schilling, Thomas[Author]</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="4"/>
-        <v>Rodriguez Verdugo, Alejandra[Author] AND Irvine[Affiliation]</v>
+        <v>Schilling, Thomas[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2585,11 +2573,11 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="5"/>
-        <v>Sato, Brian[Author]</v>
+        <v>Shi, Xiaoyu[Author]</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="4"/>
-        <v>Sato, Brian[Author] AND Irvine[Affiliation]</v>
+        <v>Shi, Xiaoyu[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2600,12 +2588,12 @@
         <v>110</v>
       </c>
       <c r="C103" t="str">
-        <f>_xlfn.CONCAT(B103,"[Author] OR 0000-0002-8127-012X[Author - Identifier]")</f>
-        <v>Schechtman-Drayman, Eitan[Author] OR 0000-0002-8127-012X[Author - Identifier]</v>
+        <f t="shared" si="5"/>
+        <v>Sorte, Cascade[Author]</v>
       </c>
       <c r="D103" t="str">
-        <f>_xlfn.CONCAT(C103, " AND Irvine[Affiliation]")</f>
-        <v>Schechtman-Drayman, Eitan[Author] OR 0000-0002-8127-012X[Author - Identifier] AND Irvine[Affiliation]</v>
+        <f t="shared" si="4"/>
+        <v>Sorte, Cascade[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,11 +2605,11 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="5"/>
-        <v>Schilling, Thomas[Author]</v>
+        <v>Stark, Craig[Author]</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="4"/>
-        <v>Schilling, Thomas[Author] AND Irvine[Affiliation]</v>
+        <v>Stark, Craig[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2633,11 +2621,11 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="5"/>
-        <v>Shi, Xiaoyu[Author]</v>
+        <v>Striedter, Georg[Author]</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="4"/>
-        <v>Shi, Xiaoyu[Author] AND Irvine[Affiliation]</v>
+        <v>Striedter, Georg[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2648,12 +2636,12 @@
         <v>113</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="5"/>
-        <v>Sorte, Cascade[Author]</v>
+        <f>_xlfn.CONCAT(B106,"[Author] OR 0000-0003-1354-507X[Author - Identifier]")</f>
+        <v>Suetterlin, Christine[Author] OR 0000-0003-1354-507X[Author - Identifier]</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="4"/>
-        <v>Sorte, Cascade[Author] AND Irvine[Affiliation]</v>
+        <v>Suetterlin, Christine[Author] OR 0000-0003-1354-507X[Author - Identifier] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2664,12 +2652,12 @@
         <v>114</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="5"/>
-        <v>Stark, Craig[Author]</v>
+        <f t="shared" ref="C107:C124" si="6">_xlfn.CONCAT(B107,"[Author]")</f>
+        <v>Sumikawa, Katumi[Author]</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="4"/>
-        <v>Stark, Craig[Author] AND Irvine[Affiliation]</v>
+        <v>Sumikawa, Katumi[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2680,12 +2668,12 @@
         <v>115</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="5"/>
-        <v>Striedter, Georg[Author]</v>
+        <f t="shared" si="6"/>
+        <v>Sun, Sha[Author]</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="4"/>
-        <v>Striedter, Georg[Author] AND Irvine[Affiliation]</v>
+        <v>Sun, Sha[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2696,12 +2684,12 @@
         <v>116</v>
       </c>
       <c r="C109" t="str">
-        <f>_xlfn.CONCAT(B109,"[Author] OR 0000-0003-1354-507X[Author - Identifier]")</f>
-        <v>Suetterlin, Christine[Author] OR 0000-0003-1354-507X[Author - Identifier]</v>
+        <f t="shared" si="6"/>
+        <v>Swarup, Vivek[Author]</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="4"/>
-        <v>Suetterlin, Christine[Author] OR 0000-0003-1354-507X[Author - Identifier] AND Irvine[Affiliation]</v>
+        <v>Swarup, Vivek[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2712,12 +2700,12 @@
         <v>117</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" ref="C110:C127" si="6">_xlfn.CONCAT(B110,"[Author]")</f>
-        <v>Sumikawa, Katumi[Author]</v>
+        <f t="shared" si="6"/>
+        <v>Symons, Celia[Author]</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="4"/>
-        <v>Sumikawa, Katumi[Author] AND Irvine[Affiliation]</v>
+        <v>Symons, Celia[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2729,11 +2717,11 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="6"/>
-        <v>Sun, Sha[Author]</v>
+        <v>Tenner, Andrea[Author]</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="4"/>
-        <v>Sun, Sha[Author] AND Irvine[Affiliation]</v>
+        <v>Tenner, Andrea[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2745,11 +2733,11 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="6"/>
-        <v>Swarup, Vivek[Author]</v>
+        <v>Thompson-Peer, Katherine[Author]</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="4"/>
-        <v>Swarup, Vivek[Author] AND Irvine[Affiliation]</v>
+        <v>Thompson-Peer, Katherine[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -2761,11 +2749,11 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="6"/>
-        <v>Symons, Celia[Author]</v>
+        <v>Thompson, Leslie[Author]</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="4"/>
-        <v>Symons, Celia[Author] AND Irvine[Affiliation]</v>
+        <v>Thompson, Leslie[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2777,11 +2765,11 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="6"/>
-        <v>Tenner, Andrea[Author]</v>
+        <v>Thornton, Kevin[Author]</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="4"/>
-        <v>Tenner, Andrea[Author] AND Irvine[Affiliation]</v>
+        <v>Thornton, Kevin[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2793,11 +2781,11 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="6"/>
-        <v>Thompson-Peer, Katherine[Author]</v>
+        <v>Tinoco, Roberto[Author]</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="4"/>
-        <v>Thompson-Peer, Katherine[Author] AND Irvine[Affiliation]</v>
+        <v>Tinoco, Roberto[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2809,11 +2797,11 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="6"/>
-        <v>Thompson, Leslie[Author]</v>
+        <v>Treseder, Kathleen[Author]</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="4"/>
-        <v>Thompson, Leslie[Author] AND Irvine[Affiliation]</v>
+        <v>Treseder, Kathleen[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2825,11 +2813,11 @@
       </c>
       <c r="C117" t="str">
         <f t="shared" si="6"/>
-        <v>Thornton, Kevin[Author]</v>
+        <v>Tsai, Shiou-Chuan[Author]</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="4"/>
-        <v>Thornton, Kevin[Author] AND Irvine[Affiliation]</v>
+        <v>Tsai, Shiou-Chuan[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2841,11 +2829,11 @@
       </c>
       <c r="C118" t="str">
         <f t="shared" si="6"/>
-        <v>Tinoco, Roberto[Author]</v>
+        <v>Walsh, Craig[Author]</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="4"/>
-        <v>Tinoco, Roberto[Author] AND Irvine[Affiliation]</v>
+        <v>Walsh, Craig[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2857,11 +2845,11 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" si="6"/>
-        <v>Treseder, Kathleen[Author]</v>
+        <v>Wang, Wenqi[Author]</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="4"/>
-        <v>Treseder, Kathleen[Author] AND Irvine[Affiliation]</v>
+        <v>Wang, Wenqi[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2873,11 +2861,11 @@
       </c>
       <c r="C120" t="str">
         <f t="shared" si="6"/>
-        <v>Tsai, Shiou-Chuan[Author]</v>
+        <v>Warrior, Rahul[Author]</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="4"/>
-        <v>Tsai, Shiou-Chuan[Author] AND Irvine[Affiliation]</v>
+        <v>Warrior, Rahul[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2889,27 +2877,27 @@
       </c>
       <c r="C121" t="str">
         <f t="shared" si="6"/>
-        <v>Walsh, Craig[Author]</v>
+        <v>Whiteson, Katrine[Author]</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="4"/>
-        <v>Walsh, Craig[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+        <v>Whiteson, Katrine[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B122" t="s">
-        <v>129</v>
-      </c>
-      <c r="C122" t="str">
-        <f t="shared" si="6"/>
-        <v>Wang, Wenqi[Author]</v>
-      </c>
-      <c r="D122" t="str">
-        <f t="shared" si="4"/>
-        <v>Wang, Wenqi[Author] AND Irvine[Affiliation]</v>
+      <c r="C122" s="1" t="str">
+        <f>_xlfn.CONCAT(B122,"[Author] OR 0000-0002-5336-7565[Author - Identifier]")</f>
+        <v>Wiles, TJ [Author] OR 0000-0002-5336-7565[Author - Identifier]</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <f>_xlfn.CONCAT(C122)</f>
+        <v>Wiles, TJ [Author] OR 0000-0002-5336-7565[Author - Identifier]</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2921,11 +2909,11 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="6"/>
-        <v>Warrior, Rahul[Author]</v>
+        <v>Williams, Adrienne[Author]</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="4"/>
-        <v>Warrior, Rahul[Author] AND Irvine[Affiliation]</v>
+        <v>Williams, Adrienne[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2937,81 +2925,33 @@
       </c>
       <c r="C124" t="str">
         <f t="shared" si="6"/>
-        <v>Whiteson, Katrine[Author]</v>
+        <v>Wood, Marcelo[Author]</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="4"/>
-        <v>Whiteson, Katrine[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+        <v>Wood, Marcelo[Author] AND Irvine[Affiliation]</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>132</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>132</v>
       </c>
-      <c r="C125" s="1" t="str">
-        <f>_xlfn.CONCAT(B125,"[Author] OR 0000-0002-5336-7565[Author - Identifier]")</f>
-        <v>Wiles, TJ [Author] OR 0000-0002-5336-7565[Author - Identifier]</v>
-      </c>
-      <c r="D125" s="1" t="str">
-        <f>_xlfn.CONCAT(C125)</f>
-        <v>Wiles, TJ [Author] OR 0000-0002-5336-7565[Author - Identifier]</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>133</v>
-      </c>
-      <c r="B126" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126" t="str">
-        <f t="shared" si="6"/>
-        <v>Williams, Adrienne[Author]</v>
-      </c>
-      <c r="D126" t="str">
-        <f t="shared" si="4"/>
-        <v>Williams, Adrienne[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" t="s">
-        <v>134</v>
-      </c>
-      <c r="C127" t="str">
-        <f t="shared" si="6"/>
-        <v>Wood, Marcelo[Author]</v>
-      </c>
-      <c r="D127" t="str">
-        <f t="shared" si="4"/>
-        <v>Wood, Marcelo[Author] AND Irvine[Affiliation]</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>135</v>
-      </c>
-      <c r="B128" t="s">
-        <v>135</v>
-      </c>
-      <c r="C128" t="str">
-        <f>_xlfn.CONCAT(B128,"[Author]")</f>
+      <c r="C125" t="str">
+        <f>_xlfn.CONCAT(B125,"[Author]")</f>
         <v>Yassa, Michael[Author]</v>
       </c>
-      <c r="D128" t="str">
+      <c r="D125" t="str">
         <f t="shared" si="4"/>
         <v>Yassa, Michael[Author] AND Irvine[Affiliation]</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C128" xr:uid="{FB22B5D1-2679-0245-9D4C-9BA6625E7CF7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C128">
-      <sortCondition ref="C1:C128"/>
+  <autoFilter ref="B1:C125" xr:uid="{FB22B5D1-2679-0245-9D4C-9BA6625E7CF7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C125">
+      <sortCondition ref="C1:C125"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3021,6 +2961,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B87155CDAEBE54E8A991CDFF09FE870" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="07d22f826efb92a1b7f7a52cdc9ab0c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ccd2e96c-ba06-41a4-9d14-ee5d4767a409" xmlns:ns3="b238fc39-fcbb-4f8c-bfd3-e3a789f7784e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f50f4dd1661db9c8120150ec829b0b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ccd2e96c-ba06-41a4-9d14-ee5d4767a409"/>
@@ -3294,16 +3243,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39C6C2A0-A411-44FC-B12B-70F8C6BA2343}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C72FCFA-11A1-4BBA-8E43-18795F416767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3320,12 +3268,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39C6C2A0-A411-44FC-B12B-70F8C6BA2343}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>